--- a/analyse/dictionnaire de données/dictionnaire.xlsx
+++ b/analyse/dictionnaire de données/dictionnaire.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="64">
   <si>
     <t>Message</t>
   </si>
@@ -81,30 +81,6 @@
     <t>Prenom</t>
   </si>
   <si>
-    <t>Nom</t>
-  </si>
-  <si>
-    <t>NomUtilisateur</t>
-  </si>
-  <si>
-    <t>MotPasse</t>
-  </si>
-  <si>
-    <t>Ville</t>
-  </si>
-  <si>
-    <t>CodePostal</t>
-  </si>
-  <si>
-    <t>Courriel</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>ArrierePlan</t>
-  </si>
-  <si>
     <t>A9A9A9</t>
   </si>
   <si>
@@ -129,42 +105,6 @@
     <t>IDEquipe</t>
   </si>
   <si>
-    <t>Annee</t>
-  </si>
-  <si>
-    <t>NomJoueur</t>
-  </si>
-  <si>
-    <t>PrenomJoueur</t>
-  </si>
-  <si>
-    <t>NoJoueur</t>
-  </si>
-  <si>
-    <t>Recrue</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>Numerotation</t>
-  </si>
-  <si>
-    <t>Valeur</t>
-  </si>
-  <si>
-    <t>Etat</t>
-  </si>
-  <si>
-    <t>ImageDevant</t>
-  </si>
-  <si>
-    <t>ImageDerriere</t>
-  </si>
-  <si>
-    <t>PublicationSurSite</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
@@ -180,9 +120,6 @@
     <t>IDCommentaire</t>
   </si>
   <si>
-    <t>Destinateur</t>
-  </si>
-  <si>
     <t>Editeur</t>
   </si>
   <si>
@@ -190,6 +127,87 @@
   </si>
   <si>
     <t>Nom du champ</t>
+  </si>
+  <si>
+    <t>Imagemem</t>
+  </si>
+  <si>
+    <t>Dateinscriptionmem</t>
+  </si>
+  <si>
+    <t>Nommem</t>
+  </si>
+  <si>
+    <t>NomUtilisateurmem</t>
+  </si>
+  <si>
+    <t>MotPassemem</t>
+  </si>
+  <si>
+    <t>Villemem</t>
+  </si>
+  <si>
+    <t>CodePostalmem</t>
+  </si>
+  <si>
+    <t>Courrielmem</t>
+  </si>
+  <si>
+    <t>Adminmem</t>
+  </si>
+  <si>
+    <t>ArrierePlanmem</t>
+  </si>
+  <si>
+    <t>Typecol</t>
+  </si>
+  <si>
+    <t>Anneefi</t>
+  </si>
+  <si>
+    <t>NomJoueurfi</t>
+  </si>
+  <si>
+    <t>PrenomJoueurfi</t>
+  </si>
+  <si>
+    <t>NoJoueurfi</t>
+  </si>
+  <si>
+    <t>Recruefi</t>
+  </si>
+  <si>
+    <t>Positionfi</t>
+  </si>
+  <si>
+    <t>Numerotationfi</t>
+  </si>
+  <si>
+    <t>Valeurfi</t>
+  </si>
+  <si>
+    <t>Etatfi</t>
+  </si>
+  <si>
+    <t>ImageDevantfi</t>
+  </si>
+  <si>
+    <t>ImageDerrierefi</t>
+  </si>
+  <si>
+    <t>PublicationSurSitefi</t>
+  </si>
+  <si>
+    <t>Destinateurcom</t>
+  </si>
+  <si>
+    <t>Messagecom</t>
+  </si>
+  <si>
+    <t>Nomedi</t>
+  </si>
+  <si>
+    <t>Nomeq</t>
   </si>
 </sst>
 </file>
@@ -588,15 +606,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
@@ -617,7 +635,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>6</v>
@@ -753,7 +771,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>6</v>
@@ -813,7 +831,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B13" s="3">
         <v>30</v>
@@ -833,7 +851,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B14" s="3">
         <v>30</v>
@@ -853,7 +871,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B15" s="3">
         <v>30</v>
@@ -873,7 +891,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B16" s="3">
         <v>30</v>
@@ -893,7 +911,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B17" s="3">
         <v>6</v>
@@ -908,12 +926,12 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B18" s="3">
         <v>30</v>
@@ -928,12 +946,12 @@
         <v>10</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>7</v>
@@ -953,7 +971,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="B20" s="3">
         <v>30</v>
@@ -971,175 +989,175 @@
         <v>10</v>
       </c>
     </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="3">
+        <v>16</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="6" t="s">
+      <c r="A22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="3">
+        <v>30</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C25" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D25" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E25" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F25" s="6" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="3">
+        <v>10</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="3">
-        <v>10</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="6" t="s">
+      <c r="D31" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E31" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F31" s="6" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>9</v>
@@ -1153,7 +1171,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>7</v>
@@ -1173,13 +1191,13 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="3">
-        <v>4</v>
+        <v>27</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>9</v>
@@ -1188,18 +1206,18 @@
         <v>10</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="3">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>9</v>
@@ -1213,13 +1231,13 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B36" s="3">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>9</v>
@@ -1228,18 +1246,18 @@
         <v>10</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>7</v>
+        <v>49</v>
+      </c>
+      <c r="B37" s="3">
+        <v>30</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>9</v>
@@ -1253,13 +1271,13 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>7</v>
+        <v>50</v>
+      </c>
+      <c r="B38" s="3">
+        <v>30</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>9</v>
@@ -1273,13 +1291,13 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="3">
-        <v>30</v>
+        <v>51</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>9</v>
@@ -1293,16 +1311,16 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" s="3">
-        <v>15</v>
+        <v>52</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>10</v>
@@ -1313,13 +1331,13 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>7</v>
+        <v>53</v>
+      </c>
+      <c r="B41" s="3">
+        <v>30</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>9</v>
@@ -1333,16 +1351,16 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B42" s="3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>10</v>
@@ -1353,13 +1371,13 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" s="3">
-        <v>30</v>
+        <v>55</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>9</v>
@@ -1373,7 +1391,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B44" s="3">
         <v>30</v>
@@ -1393,103 +1411,103 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B45" s="3">
+        <v>30</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" s="3">
+        <v>30</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" s="3">
         <v>16</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B48" s="6" t="s">
+      <c r="C47" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C50" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D50" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E50" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="F50" s="6" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B51" s="3">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>9</v>
@@ -1503,182 +1521,222 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="3">
+        <v>26</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" s="3">
+        <v>30</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" s="3">
         <v>65535</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="1"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
+      <c r="C54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="1"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C57" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D57" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="E57" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F55" s="6" t="s">
+      <c r="F57" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" s="3">
+        <v>30</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C63" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B57" s="3">
-        <v>30</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B62" s="3">
-        <v>30</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" s="2" t="s">
+      <c r="D63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3">
+        <v>30</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="A61:F61"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A49:F49"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F18" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="84" fitToHeight="2" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/analyse/dictionnaire de données/dictionnaire.xlsx
+++ b/analyse/dictionnaire de données/dictionnaire.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="24915" windowHeight="12075"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="70">
   <si>
     <t>Message</t>
   </si>
@@ -208,13 +208,31 @@
   </si>
   <si>
     <t>Nomeq</t>
+  </si>
+  <si>
+    <t>Transactions</t>
+  </si>
+  <si>
+    <t>IDTransactions</t>
+  </si>
+  <si>
+    <t>NomUtilisateurtrans</t>
+  </si>
+  <si>
+    <t>Typetrans</t>
+  </si>
+  <si>
+    <t>TypeObjettrans</t>
+  </si>
+  <si>
+    <t>datetrans</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,7 +409,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -426,7 +443,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -602,17 +618,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66:F72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
@@ -622,7 +638,7 @@
     <col min="6" max="6" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -633,7 +649,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="6" t="s">
         <v>36</v>
       </c>
@@ -654,7 +670,7 @@
       </c>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -675,7 +691,7 @@
       </c>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -696,7 +712,7 @@
       </c>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -717,7 +733,7 @@
       </c>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -738,7 +754,7 @@
       </c>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -759,7 +775,7 @@
       </c>
       <c r="G7" s="5"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="8" t="s">
         <v>18</v>
       </c>
@@ -769,7 +785,7 @@
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="6" t="s">
         <v>36</v>
       </c>
@@ -789,7 +805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -809,7 +825,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -829,7 +845,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
         <v>39</v>
       </c>
@@ -849,7 +865,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
         <v>40</v>
       </c>
@@ -869,7 +885,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
         <v>41</v>
       </c>
@@ -889,7 +905,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
         <v>42</v>
       </c>
@@ -909,7 +925,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
         <v>43</v>
       </c>
@@ -929,7 +945,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
         <v>44</v>
       </c>
@@ -949,7 +965,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
         <v>45</v>
       </c>
@@ -969,7 +985,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
         <v>46</v>
       </c>
@@ -989,7 +1005,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
@@ -1009,7 +1025,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
         <v>37</v>
       </c>
@@ -1029,7 +1045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="8" t="s">
         <v>23</v>
       </c>
@@ -1039,7 +1055,7 @@
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="6" t="s">
         <v>36</v>
       </c>
@@ -1059,7 +1075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -1079,7 +1095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
         <v>19</v>
       </c>
@@ -1099,7 +1115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
         <v>47</v>
       </c>
@@ -1119,7 +1135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="8" t="s">
         <v>25</v>
       </c>
@@ -1129,7 +1145,7 @@
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="6" t="s">
         <v>36</v>
       </c>
@@ -1149,7 +1165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
         <v>26</v>
       </c>
@@ -1169,7 +1185,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="2" t="s">
         <v>24</v>
       </c>
@@ -1189,7 +1205,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="2" t="s">
         <v>27</v>
       </c>
@@ -1209,7 +1225,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="2" t="s">
         <v>28</v>
       </c>
@@ -1229,7 +1245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="2" t="s">
         <v>48</v>
       </c>
@@ -1249,7 +1265,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="2" t="s">
         <v>49</v>
       </c>
@@ -1269,7 +1285,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="2" t="s">
         <v>50</v>
       </c>
@@ -1289,7 +1305,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" s="2" t="s">
         <v>51</v>
       </c>
@@ -1309,7 +1325,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" s="2" t="s">
         <v>52</v>
       </c>
@@ -1329,7 +1345,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" s="2" t="s">
         <v>53</v>
       </c>
@@ -1349,7 +1365,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" s="2" t="s">
         <v>54</v>
       </c>
@@ -1369,7 +1385,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" s="2" t="s">
         <v>55</v>
       </c>
@@ -1389,7 +1405,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44" s="2" t="s">
         <v>56</v>
       </c>
@@ -1409,7 +1425,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45" s="2" t="s">
         <v>57</v>
       </c>
@@ -1429,7 +1445,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46" s="2" t="s">
         <v>58</v>
       </c>
@@ -1449,7 +1465,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47" s="2" t="s">
         <v>59</v>
       </c>
@@ -1469,7 +1485,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49" s="8" t="s">
         <v>31</v>
       </c>
@@ -1479,7 +1495,7 @@
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50" s="6" t="s">
         <v>36</v>
       </c>
@@ -1499,7 +1515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="A51" s="2" t="s">
         <v>33</v>
       </c>
@@ -1519,7 +1535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52" s="2" t="s">
         <v>26</v>
       </c>
@@ -1539,7 +1555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53" s="2" t="s">
         <v>60</v>
       </c>
@@ -1559,7 +1575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54" s="2" t="s">
         <v>61</v>
       </c>
@@ -1579,10 +1595,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="B55" s="1"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="A56" s="8" t="s">
         <v>34</v>
       </c>
@@ -1592,7 +1608,7 @@
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="A57" s="6" t="s">
         <v>36</v>
       </c>
@@ -1612,7 +1628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="A58" s="2" t="s">
         <v>27</v>
       </c>
@@ -1632,7 +1648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59" s="2" t="s">
         <v>62</v>
       </c>
@@ -1652,7 +1668,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="A61" s="8" t="s">
         <v>35</v>
       </c>
@@ -1662,7 +1678,7 @@
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="A62" s="6" t="s">
         <v>36</v>
       </c>
@@ -1682,7 +1698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
       <c r="A63" s="2" t="s">
         <v>28</v>
       </c>
@@ -1702,7 +1718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6">
       <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
@@ -1722,8 +1738,139 @@
         <v>10</v>
       </c>
     </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B69" s="3">
+        <v>30</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B70" s="3">
+        <v>30</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B71" s="3">
+        <v>30</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B72" s="3">
+        <v>16</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A66:F66"/>
     <mergeCell ref="A56:F56"/>
     <mergeCell ref="A61:F61"/>
     <mergeCell ref="A1:F1"/>
@@ -1741,24 +1888,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
